--- a/ActiTimeAutomationTestData/0002_TestData/0002_TestData.xlsx
+++ b/ActiTimeAutomationTestData/0002_TestData/0002_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ActiTimeAutomationTestData\0002_TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\ActiTimeAutomation\ActiTimeAutomationTestData\0002_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="MasterTestData" sheetId="2" r:id="rId1"/>
-    <sheet name="ActiTimeLoginPage" sheetId="1" r:id="rId2"/>
-    <sheet name="ActiTimeTimeTrack" sheetId="3" r:id="rId3"/>
-    <sheet name="ActiTimeTasks" sheetId="4" r:id="rId4"/>
+    <sheet name="ActiTimeHomePage" sheetId="5" r:id="rId2"/>
+    <sheet name="ActiTimeLoginPage" sheetId="1" r:id="rId3"/>
+    <sheet name="ActiTimeTimeTrack" sheetId="3" r:id="rId4"/>
+    <sheet name="ActiTimeTasks" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
   <si>
     <t>ReferenceKey</t>
   </si>
@@ -60,13 +61,18 @@
   </si>
   <si>
     <t>TS_ActiTimeLogin_001</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>actiTIME - Enter Time-Track</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,8 +418,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.5703125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.0"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -439,19 +445,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.5703125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.140625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.85546875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.42578125"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -499,7 +561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -509,16 +571,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.5703125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.5703125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.140625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.85546875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.140625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.7109375"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15.140625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.28515625"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -566,25 +628,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.5703125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.140625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.85546875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.5703125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.42578125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.28515625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.140625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.28515625"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">

--- a/ActiTimeAutomationTestData/0002_TestData/0002_TestData.xlsx
+++ b/ActiTimeAutomationTestData/0002_TestData/0002_TestData.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\ActiTimeAutomation\ActiTimeAutomationTestData\0002_TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TechnocratsBatch6\ActiTimeAutomation\ActiTimeAutomationTestData\0002_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestData" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="21">
   <si>
     <t>ReferenceKey</t>
   </si>
@@ -67,12 +67,37 @@
   </si>
   <si>
     <t>actiTIME - Enter Time-Track</t>
+  </si>
+  <si>
+    <t>TS_Tasks_001</t>
+  </si>
+  <si>
+    <t>AS0002</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Anil</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>FirstTaskName</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>ActiTime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,11 +149,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -410,16 +434,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.5703125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -438,6 +462,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -447,17 +479,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.5703125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -490,7 +522,7 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -501,19 +533,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.5703125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -549,10 +581,30 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -563,27 +615,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.5703125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.5703125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,19 +642,13 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -616,12 +656,6 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -630,26 +664,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.5703125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.5703125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,18 +694,22 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -681,11 +717,15 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
